--- a/timetableNov25.xlsx
+++ b/timetableNov25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\.vscode\project_tt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD89374E-1F5B-4634-A5E2-D91E3797CCFB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A71C3E-BD1A-4E7B-9E27-29FBE10A792C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8267" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8267" uniqueCount="521">
   <si>
     <t>tname</t>
   </si>
@@ -1594,6 +1594,12 @@
   </si>
   <si>
     <t>9G lib</t>
+  </si>
+  <si>
+    <t>KASHISH</t>
+  </si>
+  <si>
+    <t>VIR BHADRA</t>
   </si>
 </sst>
 </file>
@@ -2267,10 +2273,10 @@
   <dimension ref="A1:K602"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B228" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B564" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V248" sqref="V248"/>
+      <selection pane="bottomRight" activeCell="T584" sqref="T584"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7930,7 +7936,7 @@
     </row>
     <row r="212" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>353</v>
+        <v>519</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>12</v>
@@ -7953,7 +7959,7 @@
     </row>
     <row r="213" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>353</v>
+        <v>519</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>13</v>
@@ -7980,7 +7986,7 @@
     </row>
     <row r="214" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>353</v>
+        <v>519</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>14</v>
@@ -8009,7 +8015,7 @@
     </row>
     <row r="215" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>353</v>
+        <v>519</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>15</v>
@@ -8038,7 +8044,7 @@
     </row>
     <row r="216" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
-        <v>353</v>
+        <v>519</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>16</v>
@@ -8067,7 +8073,7 @@
     </row>
     <row r="217" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>353</v>
+        <v>519</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>17</v>
@@ -17763,7 +17769,7 @@
     </row>
     <row r="583" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A583" s="2" t="s">
-        <v>351</v>
+        <v>520</v>
       </c>
       <c r="B583" s="3" t="s">
         <v>12</v>
@@ -17790,7 +17796,7 @@
     </row>
     <row r="584" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A584" s="2" t="s">
-        <v>351</v>
+        <v>520</v>
       </c>
       <c r="B584" s="3" t="s">
         <v>13</v>
@@ -17817,7 +17823,7 @@
     </row>
     <row r="585" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A585" s="2" t="s">
-        <v>351</v>
+        <v>520</v>
       </c>
       <c r="B585" s="3" t="s">
         <v>14</v>
@@ -17846,7 +17852,7 @@
     </row>
     <row r="586" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A586" s="2" t="s">
-        <v>351</v>
+        <v>520</v>
       </c>
       <c r="B586" s="3" t="s">
         <v>15</v>
@@ -17873,7 +17879,7 @@
     </row>
     <row r="587" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A587" s="2" t="s">
-        <v>351</v>
+        <v>520</v>
       </c>
       <c r="B587" s="3" t="s">
         <v>16</v>
@@ -17902,7 +17908,7 @@
     </row>
     <row r="588" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A588" s="2" t="s">
-        <v>351</v>
+        <v>520</v>
       </c>
       <c r="B588" s="3" t="s">
         <v>17</v>
@@ -18344,12 +18350,69 @@
     </sortState>
   </autoFilter>
   <mergeCells count="82">
-    <mergeCell ref="A43:K43"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A29:K29"/>
-    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="A589:K589"/>
+    <mergeCell ref="A596:K596"/>
+    <mergeCell ref="A554:K554"/>
+    <mergeCell ref="A568:K568"/>
+    <mergeCell ref="A575:K575"/>
+    <mergeCell ref="A582:K582"/>
+    <mergeCell ref="A561:K561"/>
+    <mergeCell ref="A547:K547"/>
+    <mergeCell ref="A470:K470"/>
+    <mergeCell ref="A477:K477"/>
+    <mergeCell ref="A484:K484"/>
+    <mergeCell ref="A491:K491"/>
+    <mergeCell ref="A498:K498"/>
+    <mergeCell ref="A505:K505"/>
+    <mergeCell ref="A512:K512"/>
+    <mergeCell ref="A519:K519"/>
+    <mergeCell ref="A526:K526"/>
+    <mergeCell ref="A533:K533"/>
+    <mergeCell ref="A540:K540"/>
+    <mergeCell ref="A463:K463"/>
+    <mergeCell ref="A386:K386"/>
+    <mergeCell ref="A393:K393"/>
+    <mergeCell ref="A400:K400"/>
+    <mergeCell ref="A407:K407"/>
+    <mergeCell ref="A414:K414"/>
+    <mergeCell ref="A421:K421"/>
+    <mergeCell ref="A428:K428"/>
+    <mergeCell ref="A435:K435"/>
+    <mergeCell ref="A442:K442"/>
+    <mergeCell ref="A449:K449"/>
+    <mergeCell ref="A456:K456"/>
+    <mergeCell ref="A379:K379"/>
+    <mergeCell ref="A302:K302"/>
+    <mergeCell ref="A309:K309"/>
+    <mergeCell ref="A316:K316"/>
+    <mergeCell ref="A323:K323"/>
+    <mergeCell ref="A330:K330"/>
+    <mergeCell ref="A337:K337"/>
+    <mergeCell ref="A344:K344"/>
+    <mergeCell ref="A351:K351"/>
+    <mergeCell ref="A358:K358"/>
+    <mergeCell ref="A365:K365"/>
+    <mergeCell ref="A372:K372"/>
+    <mergeCell ref="A295:K295"/>
+    <mergeCell ref="A225:K225"/>
+    <mergeCell ref="A246:K246"/>
+    <mergeCell ref="A253:K253"/>
+    <mergeCell ref="A260:K260"/>
+    <mergeCell ref="A267:K267"/>
+    <mergeCell ref="A274:K274"/>
+    <mergeCell ref="A281:K281"/>
+    <mergeCell ref="A288:K288"/>
+    <mergeCell ref="A218:K218"/>
+    <mergeCell ref="A141:K141"/>
+    <mergeCell ref="A148:K148"/>
+    <mergeCell ref="A155:K155"/>
+    <mergeCell ref="A162:K162"/>
+    <mergeCell ref="A169:K169"/>
+    <mergeCell ref="A176:K176"/>
+    <mergeCell ref="A183:K183"/>
+    <mergeCell ref="A197:K197"/>
+    <mergeCell ref="A204:K204"/>
+    <mergeCell ref="A211:K211"/>
     <mergeCell ref="A134:K134"/>
     <mergeCell ref="A50:K50"/>
     <mergeCell ref="A57:K57"/>
@@ -18363,69 +18426,12 @@
     <mergeCell ref="A120:K120"/>
     <mergeCell ref="A127:K127"/>
     <mergeCell ref="A92:K92"/>
-    <mergeCell ref="A218:K218"/>
-    <mergeCell ref="A141:K141"/>
-    <mergeCell ref="A148:K148"/>
-    <mergeCell ref="A155:K155"/>
-    <mergeCell ref="A162:K162"/>
-    <mergeCell ref="A169:K169"/>
-    <mergeCell ref="A176:K176"/>
-    <mergeCell ref="A183:K183"/>
-    <mergeCell ref="A197:K197"/>
-    <mergeCell ref="A204:K204"/>
-    <mergeCell ref="A211:K211"/>
-    <mergeCell ref="A295:K295"/>
-    <mergeCell ref="A225:K225"/>
-    <mergeCell ref="A246:K246"/>
-    <mergeCell ref="A253:K253"/>
-    <mergeCell ref="A260:K260"/>
-    <mergeCell ref="A267:K267"/>
-    <mergeCell ref="A274:K274"/>
-    <mergeCell ref="A281:K281"/>
-    <mergeCell ref="A288:K288"/>
-    <mergeCell ref="A379:K379"/>
-    <mergeCell ref="A302:K302"/>
-    <mergeCell ref="A309:K309"/>
-    <mergeCell ref="A316:K316"/>
-    <mergeCell ref="A323:K323"/>
-    <mergeCell ref="A330:K330"/>
-    <mergeCell ref="A337:K337"/>
-    <mergeCell ref="A344:K344"/>
-    <mergeCell ref="A351:K351"/>
-    <mergeCell ref="A358:K358"/>
-    <mergeCell ref="A365:K365"/>
-    <mergeCell ref="A372:K372"/>
-    <mergeCell ref="A463:K463"/>
-    <mergeCell ref="A386:K386"/>
-    <mergeCell ref="A393:K393"/>
-    <mergeCell ref="A400:K400"/>
-    <mergeCell ref="A407:K407"/>
-    <mergeCell ref="A414:K414"/>
-    <mergeCell ref="A421:K421"/>
-    <mergeCell ref="A428:K428"/>
-    <mergeCell ref="A435:K435"/>
-    <mergeCell ref="A442:K442"/>
-    <mergeCell ref="A449:K449"/>
-    <mergeCell ref="A456:K456"/>
-    <mergeCell ref="A547:K547"/>
-    <mergeCell ref="A470:K470"/>
-    <mergeCell ref="A477:K477"/>
-    <mergeCell ref="A484:K484"/>
-    <mergeCell ref="A491:K491"/>
-    <mergeCell ref="A498:K498"/>
-    <mergeCell ref="A505:K505"/>
-    <mergeCell ref="A512:K512"/>
-    <mergeCell ref="A519:K519"/>
-    <mergeCell ref="A526:K526"/>
-    <mergeCell ref="A533:K533"/>
-    <mergeCell ref="A540:K540"/>
-    <mergeCell ref="A589:K589"/>
-    <mergeCell ref="A596:K596"/>
-    <mergeCell ref="A554:K554"/>
-    <mergeCell ref="A568:K568"/>
-    <mergeCell ref="A575:K575"/>
-    <mergeCell ref="A582:K582"/>
-    <mergeCell ref="A561:K561"/>
+    <mergeCell ref="A43:K43"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="A36:K36"/>
   </mergeCells>
   <pageMargins left="0.68" right="0.7" top="0.59" bottom="0.45" header="0.3" footer="0.5"/>
   <pageSetup scale="63" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/timetableNov25.xlsx
+++ b/timetableNov25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\.vscode\project_tt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A71C3E-BD1A-4E7B-9E27-29FBE10A792C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD2CC35-9C82-4530-A294-0FF9BBE1F809}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8267" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8267" uniqueCount="522">
   <si>
     <t>tname</t>
   </si>
@@ -1600,6 +1600,9 @@
   </si>
   <si>
     <t>VIR BHADRA</t>
+  </si>
+  <si>
+    <t>STUTI</t>
   </si>
 </sst>
 </file>
@@ -2273,10 +2276,10 @@
   <dimension ref="A1:K602"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B564" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B508" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T584" sqref="T584"/>
+      <selection pane="bottomRight" activeCell="A527" sqref="A527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16261,7 +16264,7 @@
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="2" t="s">
-        <v>295</v>
+        <v>521</v>
       </c>
       <c r="B527" s="3" t="s">
         <v>12</v>
@@ -18350,69 +18353,12 @@
     </sortState>
   </autoFilter>
   <mergeCells count="82">
-    <mergeCell ref="A589:K589"/>
-    <mergeCell ref="A596:K596"/>
-    <mergeCell ref="A554:K554"/>
-    <mergeCell ref="A568:K568"/>
-    <mergeCell ref="A575:K575"/>
-    <mergeCell ref="A582:K582"/>
-    <mergeCell ref="A561:K561"/>
-    <mergeCell ref="A547:K547"/>
-    <mergeCell ref="A470:K470"/>
-    <mergeCell ref="A477:K477"/>
-    <mergeCell ref="A484:K484"/>
-    <mergeCell ref="A491:K491"/>
-    <mergeCell ref="A498:K498"/>
-    <mergeCell ref="A505:K505"/>
-    <mergeCell ref="A512:K512"/>
-    <mergeCell ref="A519:K519"/>
-    <mergeCell ref="A526:K526"/>
-    <mergeCell ref="A533:K533"/>
-    <mergeCell ref="A540:K540"/>
-    <mergeCell ref="A463:K463"/>
-    <mergeCell ref="A386:K386"/>
-    <mergeCell ref="A393:K393"/>
-    <mergeCell ref="A400:K400"/>
-    <mergeCell ref="A407:K407"/>
-    <mergeCell ref="A414:K414"/>
-    <mergeCell ref="A421:K421"/>
-    <mergeCell ref="A428:K428"/>
-    <mergeCell ref="A435:K435"/>
-    <mergeCell ref="A442:K442"/>
-    <mergeCell ref="A449:K449"/>
-    <mergeCell ref="A456:K456"/>
-    <mergeCell ref="A379:K379"/>
-    <mergeCell ref="A302:K302"/>
-    <mergeCell ref="A309:K309"/>
-    <mergeCell ref="A316:K316"/>
-    <mergeCell ref="A323:K323"/>
-    <mergeCell ref="A330:K330"/>
-    <mergeCell ref="A337:K337"/>
-    <mergeCell ref="A344:K344"/>
-    <mergeCell ref="A351:K351"/>
-    <mergeCell ref="A358:K358"/>
-    <mergeCell ref="A365:K365"/>
-    <mergeCell ref="A372:K372"/>
-    <mergeCell ref="A295:K295"/>
-    <mergeCell ref="A225:K225"/>
-    <mergeCell ref="A246:K246"/>
-    <mergeCell ref="A253:K253"/>
-    <mergeCell ref="A260:K260"/>
-    <mergeCell ref="A267:K267"/>
-    <mergeCell ref="A274:K274"/>
-    <mergeCell ref="A281:K281"/>
-    <mergeCell ref="A288:K288"/>
-    <mergeCell ref="A218:K218"/>
-    <mergeCell ref="A141:K141"/>
-    <mergeCell ref="A148:K148"/>
-    <mergeCell ref="A155:K155"/>
-    <mergeCell ref="A162:K162"/>
-    <mergeCell ref="A169:K169"/>
-    <mergeCell ref="A176:K176"/>
-    <mergeCell ref="A183:K183"/>
-    <mergeCell ref="A197:K197"/>
-    <mergeCell ref="A204:K204"/>
-    <mergeCell ref="A211:K211"/>
+    <mergeCell ref="A43:K43"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="A36:K36"/>
     <mergeCell ref="A134:K134"/>
     <mergeCell ref="A50:K50"/>
     <mergeCell ref="A57:K57"/>
@@ -18426,12 +18372,69 @@
     <mergeCell ref="A120:K120"/>
     <mergeCell ref="A127:K127"/>
     <mergeCell ref="A92:K92"/>
-    <mergeCell ref="A43:K43"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A29:K29"/>
-    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="A218:K218"/>
+    <mergeCell ref="A141:K141"/>
+    <mergeCell ref="A148:K148"/>
+    <mergeCell ref="A155:K155"/>
+    <mergeCell ref="A162:K162"/>
+    <mergeCell ref="A169:K169"/>
+    <mergeCell ref="A176:K176"/>
+    <mergeCell ref="A183:K183"/>
+    <mergeCell ref="A197:K197"/>
+    <mergeCell ref="A204:K204"/>
+    <mergeCell ref="A211:K211"/>
+    <mergeCell ref="A295:K295"/>
+    <mergeCell ref="A225:K225"/>
+    <mergeCell ref="A246:K246"/>
+    <mergeCell ref="A253:K253"/>
+    <mergeCell ref="A260:K260"/>
+    <mergeCell ref="A267:K267"/>
+    <mergeCell ref="A274:K274"/>
+    <mergeCell ref="A281:K281"/>
+    <mergeCell ref="A288:K288"/>
+    <mergeCell ref="A379:K379"/>
+    <mergeCell ref="A302:K302"/>
+    <mergeCell ref="A309:K309"/>
+    <mergeCell ref="A316:K316"/>
+    <mergeCell ref="A323:K323"/>
+    <mergeCell ref="A330:K330"/>
+    <mergeCell ref="A337:K337"/>
+    <mergeCell ref="A344:K344"/>
+    <mergeCell ref="A351:K351"/>
+    <mergeCell ref="A358:K358"/>
+    <mergeCell ref="A365:K365"/>
+    <mergeCell ref="A372:K372"/>
+    <mergeCell ref="A463:K463"/>
+    <mergeCell ref="A386:K386"/>
+    <mergeCell ref="A393:K393"/>
+    <mergeCell ref="A400:K400"/>
+    <mergeCell ref="A407:K407"/>
+    <mergeCell ref="A414:K414"/>
+    <mergeCell ref="A421:K421"/>
+    <mergeCell ref="A428:K428"/>
+    <mergeCell ref="A435:K435"/>
+    <mergeCell ref="A442:K442"/>
+    <mergeCell ref="A449:K449"/>
+    <mergeCell ref="A456:K456"/>
+    <mergeCell ref="A547:K547"/>
+    <mergeCell ref="A470:K470"/>
+    <mergeCell ref="A477:K477"/>
+    <mergeCell ref="A484:K484"/>
+    <mergeCell ref="A491:K491"/>
+    <mergeCell ref="A498:K498"/>
+    <mergeCell ref="A505:K505"/>
+    <mergeCell ref="A512:K512"/>
+    <mergeCell ref="A519:K519"/>
+    <mergeCell ref="A526:K526"/>
+    <mergeCell ref="A533:K533"/>
+    <mergeCell ref="A540:K540"/>
+    <mergeCell ref="A589:K589"/>
+    <mergeCell ref="A596:K596"/>
+    <mergeCell ref="A554:K554"/>
+    <mergeCell ref="A568:K568"/>
+    <mergeCell ref="A575:K575"/>
+    <mergeCell ref="A582:K582"/>
+    <mergeCell ref="A561:K561"/>
   </mergeCells>
   <pageMargins left="0.68" right="0.7" top="0.59" bottom="0.45" header="0.3" footer="0.5"/>
   <pageSetup scale="63" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/timetableNov25.xlsx
+++ b/timetableNov25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\.vscode\project_tt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD2CC35-9C82-4530-A294-0FF9BBE1F809}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEE2895-9B1B-45E7-8A30-D082A077FD84}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2279,7 +2279,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B508" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A527" sqref="A527"/>
+      <selection pane="bottomRight" activeCell="A527" sqref="A527:A532"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16291,7 +16291,7 @@
     </row>
     <row r="528" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A528" s="2" t="s">
-        <v>295</v>
+        <v>521</v>
       </c>
       <c r="B528" s="3" t="s">
         <v>13</v>
@@ -16320,7 +16320,7 @@
     </row>
     <row r="529" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A529" s="2" t="s">
-        <v>295</v>
+        <v>521</v>
       </c>
       <c r="B529" s="3" t="s">
         <v>14</v>
@@ -16349,7 +16349,7 @@
     </row>
     <row r="530" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A530" s="2" t="s">
-        <v>295</v>
+        <v>521</v>
       </c>
       <c r="B530" s="3" t="s">
         <v>15</v>
@@ -16378,7 +16378,7 @@
     </row>
     <row r="531" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A531" s="2" t="s">
-        <v>295</v>
+        <v>521</v>
       </c>
       <c r="B531" s="3" t="s">
         <v>16</v>
@@ -16407,7 +16407,7 @@
     </row>
     <row r="532" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A532" s="2" t="s">
-        <v>295</v>
+        <v>521</v>
       </c>
       <c r="B532" s="3" t="s">
         <v>17</v>
@@ -18353,12 +18353,69 @@
     </sortState>
   </autoFilter>
   <mergeCells count="82">
-    <mergeCell ref="A43:K43"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A29:K29"/>
-    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="A589:K589"/>
+    <mergeCell ref="A596:K596"/>
+    <mergeCell ref="A554:K554"/>
+    <mergeCell ref="A568:K568"/>
+    <mergeCell ref="A575:K575"/>
+    <mergeCell ref="A582:K582"/>
+    <mergeCell ref="A561:K561"/>
+    <mergeCell ref="A547:K547"/>
+    <mergeCell ref="A470:K470"/>
+    <mergeCell ref="A477:K477"/>
+    <mergeCell ref="A484:K484"/>
+    <mergeCell ref="A491:K491"/>
+    <mergeCell ref="A498:K498"/>
+    <mergeCell ref="A505:K505"/>
+    <mergeCell ref="A512:K512"/>
+    <mergeCell ref="A519:K519"/>
+    <mergeCell ref="A526:K526"/>
+    <mergeCell ref="A533:K533"/>
+    <mergeCell ref="A540:K540"/>
+    <mergeCell ref="A463:K463"/>
+    <mergeCell ref="A386:K386"/>
+    <mergeCell ref="A393:K393"/>
+    <mergeCell ref="A400:K400"/>
+    <mergeCell ref="A407:K407"/>
+    <mergeCell ref="A414:K414"/>
+    <mergeCell ref="A421:K421"/>
+    <mergeCell ref="A428:K428"/>
+    <mergeCell ref="A435:K435"/>
+    <mergeCell ref="A442:K442"/>
+    <mergeCell ref="A449:K449"/>
+    <mergeCell ref="A456:K456"/>
+    <mergeCell ref="A379:K379"/>
+    <mergeCell ref="A302:K302"/>
+    <mergeCell ref="A309:K309"/>
+    <mergeCell ref="A316:K316"/>
+    <mergeCell ref="A323:K323"/>
+    <mergeCell ref="A330:K330"/>
+    <mergeCell ref="A337:K337"/>
+    <mergeCell ref="A344:K344"/>
+    <mergeCell ref="A351:K351"/>
+    <mergeCell ref="A358:K358"/>
+    <mergeCell ref="A365:K365"/>
+    <mergeCell ref="A372:K372"/>
+    <mergeCell ref="A295:K295"/>
+    <mergeCell ref="A225:K225"/>
+    <mergeCell ref="A246:K246"/>
+    <mergeCell ref="A253:K253"/>
+    <mergeCell ref="A260:K260"/>
+    <mergeCell ref="A267:K267"/>
+    <mergeCell ref="A274:K274"/>
+    <mergeCell ref="A281:K281"/>
+    <mergeCell ref="A288:K288"/>
+    <mergeCell ref="A218:K218"/>
+    <mergeCell ref="A141:K141"/>
+    <mergeCell ref="A148:K148"/>
+    <mergeCell ref="A155:K155"/>
+    <mergeCell ref="A162:K162"/>
+    <mergeCell ref="A169:K169"/>
+    <mergeCell ref="A176:K176"/>
+    <mergeCell ref="A183:K183"/>
+    <mergeCell ref="A197:K197"/>
+    <mergeCell ref="A204:K204"/>
+    <mergeCell ref="A211:K211"/>
     <mergeCell ref="A134:K134"/>
     <mergeCell ref="A50:K50"/>
     <mergeCell ref="A57:K57"/>
@@ -18372,69 +18429,12 @@
     <mergeCell ref="A120:K120"/>
     <mergeCell ref="A127:K127"/>
     <mergeCell ref="A92:K92"/>
-    <mergeCell ref="A218:K218"/>
-    <mergeCell ref="A141:K141"/>
-    <mergeCell ref="A148:K148"/>
-    <mergeCell ref="A155:K155"/>
-    <mergeCell ref="A162:K162"/>
-    <mergeCell ref="A169:K169"/>
-    <mergeCell ref="A176:K176"/>
-    <mergeCell ref="A183:K183"/>
-    <mergeCell ref="A197:K197"/>
-    <mergeCell ref="A204:K204"/>
-    <mergeCell ref="A211:K211"/>
-    <mergeCell ref="A295:K295"/>
-    <mergeCell ref="A225:K225"/>
-    <mergeCell ref="A246:K246"/>
-    <mergeCell ref="A253:K253"/>
-    <mergeCell ref="A260:K260"/>
-    <mergeCell ref="A267:K267"/>
-    <mergeCell ref="A274:K274"/>
-    <mergeCell ref="A281:K281"/>
-    <mergeCell ref="A288:K288"/>
-    <mergeCell ref="A379:K379"/>
-    <mergeCell ref="A302:K302"/>
-    <mergeCell ref="A309:K309"/>
-    <mergeCell ref="A316:K316"/>
-    <mergeCell ref="A323:K323"/>
-    <mergeCell ref="A330:K330"/>
-    <mergeCell ref="A337:K337"/>
-    <mergeCell ref="A344:K344"/>
-    <mergeCell ref="A351:K351"/>
-    <mergeCell ref="A358:K358"/>
-    <mergeCell ref="A365:K365"/>
-    <mergeCell ref="A372:K372"/>
-    <mergeCell ref="A463:K463"/>
-    <mergeCell ref="A386:K386"/>
-    <mergeCell ref="A393:K393"/>
-    <mergeCell ref="A400:K400"/>
-    <mergeCell ref="A407:K407"/>
-    <mergeCell ref="A414:K414"/>
-    <mergeCell ref="A421:K421"/>
-    <mergeCell ref="A428:K428"/>
-    <mergeCell ref="A435:K435"/>
-    <mergeCell ref="A442:K442"/>
-    <mergeCell ref="A449:K449"/>
-    <mergeCell ref="A456:K456"/>
-    <mergeCell ref="A547:K547"/>
-    <mergeCell ref="A470:K470"/>
-    <mergeCell ref="A477:K477"/>
-    <mergeCell ref="A484:K484"/>
-    <mergeCell ref="A491:K491"/>
-    <mergeCell ref="A498:K498"/>
-    <mergeCell ref="A505:K505"/>
-    <mergeCell ref="A512:K512"/>
-    <mergeCell ref="A519:K519"/>
-    <mergeCell ref="A526:K526"/>
-    <mergeCell ref="A533:K533"/>
-    <mergeCell ref="A540:K540"/>
-    <mergeCell ref="A589:K589"/>
-    <mergeCell ref="A596:K596"/>
-    <mergeCell ref="A554:K554"/>
-    <mergeCell ref="A568:K568"/>
-    <mergeCell ref="A575:K575"/>
-    <mergeCell ref="A582:K582"/>
-    <mergeCell ref="A561:K561"/>
+    <mergeCell ref="A43:K43"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="A36:K36"/>
   </mergeCells>
   <pageMargins left="0.68" right="0.7" top="0.59" bottom="0.45" header="0.3" footer="0.5"/>
   <pageSetup scale="63" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/timetableNov25.xlsx
+++ b/timetableNov25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\.vscode\project_tt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEE2895-9B1B-45E7-8A30-D082A077FD84}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C705CC-FDC6-4B75-BD5A-54EFE9607EE5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8267" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8267" uniqueCount="523">
   <si>
     <t>tname</t>
   </si>
@@ -1603,6 +1603,9 @@
   </si>
   <si>
     <t>STUTI</t>
+  </si>
+  <si>
+    <t>YOGENDRA</t>
   </si>
 </sst>
 </file>
@@ -2276,10 +2279,10 @@
   <dimension ref="A1:K602"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B508" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B586" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A527" sqref="A527:A532"/>
+      <selection pane="bottomRight" activeCell="A597" sqref="A597:A602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18148,7 +18151,7 @@
     </row>
     <row r="597" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A597" s="2" t="s">
-        <v>326</v>
+        <v>522</v>
       </c>
       <c r="B597" s="14" t="s">
         <v>12</v>
@@ -18177,7 +18180,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="2" t="s">
-        <v>326</v>
+        <v>522</v>
       </c>
       <c r="B598" s="14" t="s">
         <v>13</v>
@@ -18206,7 +18209,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="2" t="s">
-        <v>326</v>
+        <v>522</v>
       </c>
       <c r="B599" s="14" t="s">
         <v>14</v>
@@ -18235,7 +18238,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="2" t="s">
-        <v>326</v>
+        <v>522</v>
       </c>
       <c r="B600" s="14" t="s">
         <v>15</v>
@@ -18266,7 +18269,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="2" t="s">
-        <v>326</v>
+        <v>522</v>
       </c>
       <c r="B601" s="14" t="s">
         <v>16</v>
@@ -18295,7 +18298,7 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="2" t="s">
-        <v>326</v>
+        <v>522</v>
       </c>
       <c r="B602" s="14" t="s">
         <v>17</v>
@@ -18353,69 +18356,12 @@
     </sortState>
   </autoFilter>
   <mergeCells count="82">
-    <mergeCell ref="A589:K589"/>
-    <mergeCell ref="A596:K596"/>
-    <mergeCell ref="A554:K554"/>
-    <mergeCell ref="A568:K568"/>
-    <mergeCell ref="A575:K575"/>
-    <mergeCell ref="A582:K582"/>
-    <mergeCell ref="A561:K561"/>
-    <mergeCell ref="A547:K547"/>
-    <mergeCell ref="A470:K470"/>
-    <mergeCell ref="A477:K477"/>
-    <mergeCell ref="A484:K484"/>
-    <mergeCell ref="A491:K491"/>
-    <mergeCell ref="A498:K498"/>
-    <mergeCell ref="A505:K505"/>
-    <mergeCell ref="A512:K512"/>
-    <mergeCell ref="A519:K519"/>
-    <mergeCell ref="A526:K526"/>
-    <mergeCell ref="A533:K533"/>
-    <mergeCell ref="A540:K540"/>
-    <mergeCell ref="A463:K463"/>
-    <mergeCell ref="A386:K386"/>
-    <mergeCell ref="A393:K393"/>
-    <mergeCell ref="A400:K400"/>
-    <mergeCell ref="A407:K407"/>
-    <mergeCell ref="A414:K414"/>
-    <mergeCell ref="A421:K421"/>
-    <mergeCell ref="A428:K428"/>
-    <mergeCell ref="A435:K435"/>
-    <mergeCell ref="A442:K442"/>
-    <mergeCell ref="A449:K449"/>
-    <mergeCell ref="A456:K456"/>
-    <mergeCell ref="A379:K379"/>
-    <mergeCell ref="A302:K302"/>
-    <mergeCell ref="A309:K309"/>
-    <mergeCell ref="A316:K316"/>
-    <mergeCell ref="A323:K323"/>
-    <mergeCell ref="A330:K330"/>
-    <mergeCell ref="A337:K337"/>
-    <mergeCell ref="A344:K344"/>
-    <mergeCell ref="A351:K351"/>
-    <mergeCell ref="A358:K358"/>
-    <mergeCell ref="A365:K365"/>
-    <mergeCell ref="A372:K372"/>
-    <mergeCell ref="A295:K295"/>
-    <mergeCell ref="A225:K225"/>
-    <mergeCell ref="A246:K246"/>
-    <mergeCell ref="A253:K253"/>
-    <mergeCell ref="A260:K260"/>
-    <mergeCell ref="A267:K267"/>
-    <mergeCell ref="A274:K274"/>
-    <mergeCell ref="A281:K281"/>
-    <mergeCell ref="A288:K288"/>
-    <mergeCell ref="A218:K218"/>
-    <mergeCell ref="A141:K141"/>
-    <mergeCell ref="A148:K148"/>
-    <mergeCell ref="A155:K155"/>
-    <mergeCell ref="A162:K162"/>
-    <mergeCell ref="A169:K169"/>
-    <mergeCell ref="A176:K176"/>
-    <mergeCell ref="A183:K183"/>
-    <mergeCell ref="A197:K197"/>
-    <mergeCell ref="A204:K204"/>
-    <mergeCell ref="A211:K211"/>
+    <mergeCell ref="A43:K43"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="A36:K36"/>
     <mergeCell ref="A134:K134"/>
     <mergeCell ref="A50:K50"/>
     <mergeCell ref="A57:K57"/>
@@ -18429,12 +18375,69 @@
     <mergeCell ref="A120:K120"/>
     <mergeCell ref="A127:K127"/>
     <mergeCell ref="A92:K92"/>
-    <mergeCell ref="A43:K43"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A29:K29"/>
-    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="A218:K218"/>
+    <mergeCell ref="A141:K141"/>
+    <mergeCell ref="A148:K148"/>
+    <mergeCell ref="A155:K155"/>
+    <mergeCell ref="A162:K162"/>
+    <mergeCell ref="A169:K169"/>
+    <mergeCell ref="A176:K176"/>
+    <mergeCell ref="A183:K183"/>
+    <mergeCell ref="A197:K197"/>
+    <mergeCell ref="A204:K204"/>
+    <mergeCell ref="A211:K211"/>
+    <mergeCell ref="A295:K295"/>
+    <mergeCell ref="A225:K225"/>
+    <mergeCell ref="A246:K246"/>
+    <mergeCell ref="A253:K253"/>
+    <mergeCell ref="A260:K260"/>
+    <mergeCell ref="A267:K267"/>
+    <mergeCell ref="A274:K274"/>
+    <mergeCell ref="A281:K281"/>
+    <mergeCell ref="A288:K288"/>
+    <mergeCell ref="A379:K379"/>
+    <mergeCell ref="A302:K302"/>
+    <mergeCell ref="A309:K309"/>
+    <mergeCell ref="A316:K316"/>
+    <mergeCell ref="A323:K323"/>
+    <mergeCell ref="A330:K330"/>
+    <mergeCell ref="A337:K337"/>
+    <mergeCell ref="A344:K344"/>
+    <mergeCell ref="A351:K351"/>
+    <mergeCell ref="A358:K358"/>
+    <mergeCell ref="A365:K365"/>
+    <mergeCell ref="A372:K372"/>
+    <mergeCell ref="A463:K463"/>
+    <mergeCell ref="A386:K386"/>
+    <mergeCell ref="A393:K393"/>
+    <mergeCell ref="A400:K400"/>
+    <mergeCell ref="A407:K407"/>
+    <mergeCell ref="A414:K414"/>
+    <mergeCell ref="A421:K421"/>
+    <mergeCell ref="A428:K428"/>
+    <mergeCell ref="A435:K435"/>
+    <mergeCell ref="A442:K442"/>
+    <mergeCell ref="A449:K449"/>
+    <mergeCell ref="A456:K456"/>
+    <mergeCell ref="A547:K547"/>
+    <mergeCell ref="A470:K470"/>
+    <mergeCell ref="A477:K477"/>
+    <mergeCell ref="A484:K484"/>
+    <mergeCell ref="A491:K491"/>
+    <mergeCell ref="A498:K498"/>
+    <mergeCell ref="A505:K505"/>
+    <mergeCell ref="A512:K512"/>
+    <mergeCell ref="A519:K519"/>
+    <mergeCell ref="A526:K526"/>
+    <mergeCell ref="A533:K533"/>
+    <mergeCell ref="A540:K540"/>
+    <mergeCell ref="A589:K589"/>
+    <mergeCell ref="A596:K596"/>
+    <mergeCell ref="A554:K554"/>
+    <mergeCell ref="A568:K568"/>
+    <mergeCell ref="A575:K575"/>
+    <mergeCell ref="A582:K582"/>
+    <mergeCell ref="A561:K561"/>
   </mergeCells>
   <pageMargins left="0.68" right="0.7" top="0.59" bottom="0.45" header="0.3" footer="0.5"/>
   <pageSetup scale="63" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/timetableNov25.xlsx
+++ b/timetableNov25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\.vscode\project_tt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C705CC-FDC6-4B75-BD5A-54EFE9607EE5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10E5D71-5115-42CF-9119-6AC88B949339}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8267" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8267" uniqueCount="532">
   <si>
     <t>tname</t>
   </si>
@@ -1606,6 +1606,33 @@
   </si>
   <si>
     <t>YOGENDRA</t>
+  </si>
+  <si>
+    <t>VINEETA</t>
+  </si>
+  <si>
+    <t>TUSHAR</t>
+  </si>
+  <si>
+    <t>S.C.MISHRA</t>
+  </si>
+  <si>
+    <t>RUPALI</t>
+  </si>
+  <si>
+    <t>PRIYA PANDEY</t>
+  </si>
+  <si>
+    <t>POOJA</t>
+  </si>
+  <si>
+    <t>P.K.DUBEY</t>
+  </si>
+  <si>
+    <t>JYOTI</t>
+  </si>
+  <si>
+    <t>ANUJ DIXIT</t>
   </si>
 </sst>
 </file>
@@ -2279,10 +2306,10 @@
   <dimension ref="A1:K602"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B586" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A597" sqref="A597:A602"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3832,7 +3859,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>312</v>
+        <v>531</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>12</v>
@@ -3863,7 +3890,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>312</v>
+        <v>531</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>13</v>
@@ -3894,7 +3921,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>312</v>
+        <v>531</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>14</v>
@@ -3923,7 +3950,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>312</v>
+        <v>531</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>15</v>
@@ -3952,7 +3979,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>312</v>
+        <v>531</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>16</v>
@@ -3979,7 +4006,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>312</v>
+        <v>531</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>17</v>
@@ -7560,7 +7587,7 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>335</v>
+        <v>530</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>12</v>
@@ -7591,7 +7618,7 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>335</v>
+        <v>530</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>13</v>
@@ -7622,7 +7649,7 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>335</v>
+        <v>530</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>14</v>
@@ -7653,7 +7680,7 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>335</v>
+        <v>530</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>15</v>
@@ -7682,7 +7709,7 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>335</v>
+        <v>530</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>16</v>
@@ -7713,7 +7740,7 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>335</v>
+        <v>530</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>17</v>
@@ -11855,7 +11882,7 @@
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
-        <v>348</v>
+        <v>529</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>12</v>
@@ -11882,7 +11909,7 @@
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
-        <v>348</v>
+        <v>529</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>13</v>
@@ -11911,7 +11938,7 @@
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
-        <v>348</v>
+        <v>529</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>14</v>
@@ -11938,7 +11965,7 @@
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
-        <v>348</v>
+        <v>529</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>15</v>
@@ -11963,7 +11990,7 @@
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
-        <v>348</v>
+        <v>529</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>16</v>
@@ -11994,7 +12021,7 @@
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
-        <v>348</v>
+        <v>529</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>17</v>
@@ -12205,7 +12232,7 @@
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
-        <v>334</v>
+        <v>528</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>12</v>
@@ -12236,7 +12263,7 @@
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
-        <v>334</v>
+        <v>528</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>13</v>
@@ -12263,7 +12290,7 @@
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
-        <v>334</v>
+        <v>528</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>14</v>
@@ -12294,7 +12321,7 @@
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
-        <v>334</v>
+        <v>528</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>15</v>
@@ -12325,7 +12352,7 @@
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
-        <v>334</v>
+        <v>528</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>16</v>
@@ -12356,7 +12383,7 @@
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
-        <v>334</v>
+        <v>528</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>17</v>
@@ -12400,7 +12427,7 @@
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
-        <v>338</v>
+        <v>527</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>12</v>
@@ -12427,7 +12454,7 @@
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
-        <v>338</v>
+        <v>527</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>13</v>
@@ -12452,7 +12479,7 @@
     </row>
     <row r="382" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A382" s="2" t="s">
-        <v>338</v>
+        <v>527</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>14</v>
@@ -12477,7 +12504,7 @@
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
-        <v>338</v>
+        <v>527</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>15</v>
@@ -12502,7 +12529,7 @@
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
-        <v>338</v>
+        <v>527</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>16</v>
@@ -12531,7 +12558,7 @@
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
-        <v>338</v>
+        <v>527</v>
       </c>
       <c r="B385" s="3" t="s">
         <v>17</v>
@@ -14428,7 +14455,7 @@
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="2" t="s">
-        <v>328</v>
+        <v>526</v>
       </c>
       <c r="B457" s="3" t="s">
         <v>12</v>
@@ -14455,7 +14482,7 @@
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="2" t="s">
-        <v>328</v>
+        <v>526</v>
       </c>
       <c r="B458" s="3" t="s">
         <v>13</v>
@@ -14480,7 +14507,7 @@
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="2" t="s">
-        <v>328</v>
+        <v>526</v>
       </c>
       <c r="B459" s="3" t="s">
         <v>14</v>
@@ -14505,7 +14532,7 @@
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="2" t="s">
-        <v>328</v>
+        <v>526</v>
       </c>
       <c r="B460" s="3" t="s">
         <v>15</v>
@@ -14532,7 +14559,7 @@
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="2" t="s">
-        <v>328</v>
+        <v>526</v>
       </c>
       <c r="B461" s="3" t="s">
         <v>16</v>
@@ -14557,7 +14584,7 @@
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="2" t="s">
-        <v>328</v>
+        <v>526</v>
       </c>
       <c r="B462" s="3" t="s">
         <v>17</v>
@@ -14597,7 +14624,7 @@
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="2" t="s">
-        <v>311</v>
+        <v>525</v>
       </c>
       <c r="B464" s="3" t="s">
         <v>12</v>
@@ -14626,7 +14653,7 @@
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="2" t="s">
-        <v>311</v>
+        <v>525</v>
       </c>
       <c r="B465" s="3" t="s">
         <v>13</v>
@@ -14653,7 +14680,7 @@
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="2" t="s">
-        <v>311</v>
+        <v>525</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>14</v>
@@ -14675,7 +14702,7 @@
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="2" t="s">
-        <v>311</v>
+        <v>525</v>
       </c>
       <c r="B467" s="3" t="s">
         <v>15</v>
@@ -14700,7 +14727,7 @@
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="2" t="s">
-        <v>311</v>
+        <v>525</v>
       </c>
       <c r="B468" s="3" t="s">
         <v>16</v>
@@ -14725,7 +14752,7 @@
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="2" t="s">
-        <v>311</v>
+        <v>525</v>
       </c>
       <c r="B469" s="3" t="s">
         <v>17</v>
@@ -16843,7 +16870,7 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="2" t="s">
-        <v>330</v>
+        <v>524</v>
       </c>
       <c r="B548" s="3" t="s">
         <v>12</v>
@@ -16872,7 +16899,7 @@
     </row>
     <row r="549" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A549" s="2" t="s">
-        <v>330</v>
+        <v>524</v>
       </c>
       <c r="B549" s="3" t="s">
         <v>13</v>
@@ -16901,7 +16928,7 @@
     </row>
     <row r="550" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A550" s="2" t="s">
-        <v>330</v>
+        <v>524</v>
       </c>
       <c r="B550" s="3" t="s">
         <v>14</v>
@@ -16930,7 +16957,7 @@
     </row>
     <row r="551" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A551" s="2" t="s">
-        <v>330</v>
+        <v>524</v>
       </c>
       <c r="B551" s="3" t="s">
         <v>15</v>
@@ -16961,7 +16988,7 @@
     </row>
     <row r="552" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A552" s="2" t="s">
-        <v>330</v>
+        <v>524</v>
       </c>
       <c r="B552" s="3" t="s">
         <v>16</v>
@@ -16992,7 +17019,7 @@
     </row>
     <row r="553" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A553" s="2" t="s">
-        <v>330</v>
+        <v>524</v>
       </c>
       <c r="B553" s="3" t="s">
         <v>17</v>
@@ -17414,7 +17441,7 @@
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="2" t="s">
-        <v>327</v>
+        <v>523</v>
       </c>
       <c r="B569" s="3" t="s">
         <v>12</v>
@@ -17443,7 +17470,7 @@
     </row>
     <row r="570" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A570" s="2" t="s">
-        <v>327</v>
+        <v>523</v>
       </c>
       <c r="B570" s="3" t="s">
         <v>13</v>
@@ -17472,7 +17499,7 @@
     </row>
     <row r="571" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A571" s="2" t="s">
-        <v>327</v>
+        <v>523</v>
       </c>
       <c r="B571" s="3" t="s">
         <v>14</v>
@@ -17503,7 +17530,7 @@
     </row>
     <row r="572" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A572" s="2" t="s">
-        <v>327</v>
+        <v>523</v>
       </c>
       <c r="B572" s="3" t="s">
         <v>15</v>
@@ -17530,7 +17557,7 @@
     </row>
     <row r="573" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A573" s="2" t="s">
-        <v>327</v>
+        <v>523</v>
       </c>
       <c r="B573" s="3" t="s">
         <v>16</v>
@@ -17561,7 +17588,7 @@
     </row>
     <row r="574" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A574" s="2" t="s">
-        <v>327</v>
+        <v>523</v>
       </c>
       <c r="B574" s="3" t="s">
         <v>17</v>
@@ -18356,12 +18383,69 @@
     </sortState>
   </autoFilter>
   <mergeCells count="82">
-    <mergeCell ref="A43:K43"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A29:K29"/>
-    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="A589:K589"/>
+    <mergeCell ref="A596:K596"/>
+    <mergeCell ref="A554:K554"/>
+    <mergeCell ref="A568:K568"/>
+    <mergeCell ref="A575:K575"/>
+    <mergeCell ref="A582:K582"/>
+    <mergeCell ref="A561:K561"/>
+    <mergeCell ref="A547:K547"/>
+    <mergeCell ref="A470:K470"/>
+    <mergeCell ref="A477:K477"/>
+    <mergeCell ref="A484:K484"/>
+    <mergeCell ref="A491:K491"/>
+    <mergeCell ref="A498:K498"/>
+    <mergeCell ref="A505:K505"/>
+    <mergeCell ref="A512:K512"/>
+    <mergeCell ref="A519:K519"/>
+    <mergeCell ref="A526:K526"/>
+    <mergeCell ref="A533:K533"/>
+    <mergeCell ref="A540:K540"/>
+    <mergeCell ref="A463:K463"/>
+    <mergeCell ref="A386:K386"/>
+    <mergeCell ref="A393:K393"/>
+    <mergeCell ref="A400:K400"/>
+    <mergeCell ref="A407:K407"/>
+    <mergeCell ref="A414:K414"/>
+    <mergeCell ref="A421:K421"/>
+    <mergeCell ref="A428:K428"/>
+    <mergeCell ref="A435:K435"/>
+    <mergeCell ref="A442:K442"/>
+    <mergeCell ref="A449:K449"/>
+    <mergeCell ref="A456:K456"/>
+    <mergeCell ref="A379:K379"/>
+    <mergeCell ref="A302:K302"/>
+    <mergeCell ref="A309:K309"/>
+    <mergeCell ref="A316:K316"/>
+    <mergeCell ref="A323:K323"/>
+    <mergeCell ref="A330:K330"/>
+    <mergeCell ref="A337:K337"/>
+    <mergeCell ref="A344:K344"/>
+    <mergeCell ref="A351:K351"/>
+    <mergeCell ref="A358:K358"/>
+    <mergeCell ref="A365:K365"/>
+    <mergeCell ref="A372:K372"/>
+    <mergeCell ref="A295:K295"/>
+    <mergeCell ref="A225:K225"/>
+    <mergeCell ref="A246:K246"/>
+    <mergeCell ref="A253:K253"/>
+    <mergeCell ref="A260:K260"/>
+    <mergeCell ref="A267:K267"/>
+    <mergeCell ref="A274:K274"/>
+    <mergeCell ref="A281:K281"/>
+    <mergeCell ref="A288:K288"/>
+    <mergeCell ref="A218:K218"/>
+    <mergeCell ref="A141:K141"/>
+    <mergeCell ref="A148:K148"/>
+    <mergeCell ref="A155:K155"/>
+    <mergeCell ref="A162:K162"/>
+    <mergeCell ref="A169:K169"/>
+    <mergeCell ref="A176:K176"/>
+    <mergeCell ref="A183:K183"/>
+    <mergeCell ref="A197:K197"/>
+    <mergeCell ref="A204:K204"/>
+    <mergeCell ref="A211:K211"/>
     <mergeCell ref="A134:K134"/>
     <mergeCell ref="A50:K50"/>
     <mergeCell ref="A57:K57"/>
@@ -18375,69 +18459,12 @@
     <mergeCell ref="A120:K120"/>
     <mergeCell ref="A127:K127"/>
     <mergeCell ref="A92:K92"/>
-    <mergeCell ref="A218:K218"/>
-    <mergeCell ref="A141:K141"/>
-    <mergeCell ref="A148:K148"/>
-    <mergeCell ref="A155:K155"/>
-    <mergeCell ref="A162:K162"/>
-    <mergeCell ref="A169:K169"/>
-    <mergeCell ref="A176:K176"/>
-    <mergeCell ref="A183:K183"/>
-    <mergeCell ref="A197:K197"/>
-    <mergeCell ref="A204:K204"/>
-    <mergeCell ref="A211:K211"/>
-    <mergeCell ref="A295:K295"/>
-    <mergeCell ref="A225:K225"/>
-    <mergeCell ref="A246:K246"/>
-    <mergeCell ref="A253:K253"/>
-    <mergeCell ref="A260:K260"/>
-    <mergeCell ref="A267:K267"/>
-    <mergeCell ref="A274:K274"/>
-    <mergeCell ref="A281:K281"/>
-    <mergeCell ref="A288:K288"/>
-    <mergeCell ref="A379:K379"/>
-    <mergeCell ref="A302:K302"/>
-    <mergeCell ref="A309:K309"/>
-    <mergeCell ref="A316:K316"/>
-    <mergeCell ref="A323:K323"/>
-    <mergeCell ref="A330:K330"/>
-    <mergeCell ref="A337:K337"/>
-    <mergeCell ref="A344:K344"/>
-    <mergeCell ref="A351:K351"/>
-    <mergeCell ref="A358:K358"/>
-    <mergeCell ref="A365:K365"/>
-    <mergeCell ref="A372:K372"/>
-    <mergeCell ref="A463:K463"/>
-    <mergeCell ref="A386:K386"/>
-    <mergeCell ref="A393:K393"/>
-    <mergeCell ref="A400:K400"/>
-    <mergeCell ref="A407:K407"/>
-    <mergeCell ref="A414:K414"/>
-    <mergeCell ref="A421:K421"/>
-    <mergeCell ref="A428:K428"/>
-    <mergeCell ref="A435:K435"/>
-    <mergeCell ref="A442:K442"/>
-    <mergeCell ref="A449:K449"/>
-    <mergeCell ref="A456:K456"/>
-    <mergeCell ref="A547:K547"/>
-    <mergeCell ref="A470:K470"/>
-    <mergeCell ref="A477:K477"/>
-    <mergeCell ref="A484:K484"/>
-    <mergeCell ref="A491:K491"/>
-    <mergeCell ref="A498:K498"/>
-    <mergeCell ref="A505:K505"/>
-    <mergeCell ref="A512:K512"/>
-    <mergeCell ref="A519:K519"/>
-    <mergeCell ref="A526:K526"/>
-    <mergeCell ref="A533:K533"/>
-    <mergeCell ref="A540:K540"/>
-    <mergeCell ref="A589:K589"/>
-    <mergeCell ref="A596:K596"/>
-    <mergeCell ref="A554:K554"/>
-    <mergeCell ref="A568:K568"/>
-    <mergeCell ref="A575:K575"/>
-    <mergeCell ref="A582:K582"/>
-    <mergeCell ref="A561:K561"/>
+    <mergeCell ref="A43:K43"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="A36:K36"/>
   </mergeCells>
   <pageMargins left="0.68" right="0.7" top="0.59" bottom="0.45" header="0.3" footer="0.5"/>
   <pageSetup scale="63" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/timetableNov25.xlsx
+++ b/timetableNov25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\.vscode\project_tt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10E5D71-5115-42CF-9119-6AC88B949339}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691D23C0-D209-42EA-B29D-C88B8CAABF16}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2309,7 +2309,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H215" sqref="H215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7997,10 +7997,9 @@
       <c r="B213" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C213" s="36" t="s">
+      <c r="D213" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D213" s="31"/>
       <c r="E213" s="31" t="s">
         <v>220</v>
       </c>
@@ -18383,69 +18382,12 @@
     </sortState>
   </autoFilter>
   <mergeCells count="82">
-    <mergeCell ref="A589:K589"/>
-    <mergeCell ref="A596:K596"/>
-    <mergeCell ref="A554:K554"/>
-    <mergeCell ref="A568:K568"/>
-    <mergeCell ref="A575:K575"/>
-    <mergeCell ref="A582:K582"/>
-    <mergeCell ref="A561:K561"/>
-    <mergeCell ref="A547:K547"/>
-    <mergeCell ref="A470:K470"/>
-    <mergeCell ref="A477:K477"/>
-    <mergeCell ref="A484:K484"/>
-    <mergeCell ref="A491:K491"/>
-    <mergeCell ref="A498:K498"/>
-    <mergeCell ref="A505:K505"/>
-    <mergeCell ref="A512:K512"/>
-    <mergeCell ref="A519:K519"/>
-    <mergeCell ref="A526:K526"/>
-    <mergeCell ref="A533:K533"/>
-    <mergeCell ref="A540:K540"/>
-    <mergeCell ref="A463:K463"/>
-    <mergeCell ref="A386:K386"/>
-    <mergeCell ref="A393:K393"/>
-    <mergeCell ref="A400:K400"/>
-    <mergeCell ref="A407:K407"/>
-    <mergeCell ref="A414:K414"/>
-    <mergeCell ref="A421:K421"/>
-    <mergeCell ref="A428:K428"/>
-    <mergeCell ref="A435:K435"/>
-    <mergeCell ref="A442:K442"/>
-    <mergeCell ref="A449:K449"/>
-    <mergeCell ref="A456:K456"/>
-    <mergeCell ref="A379:K379"/>
-    <mergeCell ref="A302:K302"/>
-    <mergeCell ref="A309:K309"/>
-    <mergeCell ref="A316:K316"/>
-    <mergeCell ref="A323:K323"/>
-    <mergeCell ref="A330:K330"/>
-    <mergeCell ref="A337:K337"/>
-    <mergeCell ref="A344:K344"/>
-    <mergeCell ref="A351:K351"/>
-    <mergeCell ref="A358:K358"/>
-    <mergeCell ref="A365:K365"/>
-    <mergeCell ref="A372:K372"/>
-    <mergeCell ref="A295:K295"/>
-    <mergeCell ref="A225:K225"/>
-    <mergeCell ref="A246:K246"/>
-    <mergeCell ref="A253:K253"/>
-    <mergeCell ref="A260:K260"/>
-    <mergeCell ref="A267:K267"/>
-    <mergeCell ref="A274:K274"/>
-    <mergeCell ref="A281:K281"/>
-    <mergeCell ref="A288:K288"/>
-    <mergeCell ref="A218:K218"/>
-    <mergeCell ref="A141:K141"/>
-    <mergeCell ref="A148:K148"/>
-    <mergeCell ref="A155:K155"/>
-    <mergeCell ref="A162:K162"/>
-    <mergeCell ref="A169:K169"/>
-    <mergeCell ref="A176:K176"/>
-    <mergeCell ref="A183:K183"/>
-    <mergeCell ref="A197:K197"/>
-    <mergeCell ref="A204:K204"/>
-    <mergeCell ref="A211:K211"/>
+    <mergeCell ref="A43:K43"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="A36:K36"/>
     <mergeCell ref="A134:K134"/>
     <mergeCell ref="A50:K50"/>
     <mergeCell ref="A57:K57"/>
@@ -18459,12 +18401,69 @@
     <mergeCell ref="A120:K120"/>
     <mergeCell ref="A127:K127"/>
     <mergeCell ref="A92:K92"/>
-    <mergeCell ref="A43:K43"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A29:K29"/>
-    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="A218:K218"/>
+    <mergeCell ref="A141:K141"/>
+    <mergeCell ref="A148:K148"/>
+    <mergeCell ref="A155:K155"/>
+    <mergeCell ref="A162:K162"/>
+    <mergeCell ref="A169:K169"/>
+    <mergeCell ref="A176:K176"/>
+    <mergeCell ref="A183:K183"/>
+    <mergeCell ref="A197:K197"/>
+    <mergeCell ref="A204:K204"/>
+    <mergeCell ref="A211:K211"/>
+    <mergeCell ref="A295:K295"/>
+    <mergeCell ref="A225:K225"/>
+    <mergeCell ref="A246:K246"/>
+    <mergeCell ref="A253:K253"/>
+    <mergeCell ref="A260:K260"/>
+    <mergeCell ref="A267:K267"/>
+    <mergeCell ref="A274:K274"/>
+    <mergeCell ref="A281:K281"/>
+    <mergeCell ref="A288:K288"/>
+    <mergeCell ref="A379:K379"/>
+    <mergeCell ref="A302:K302"/>
+    <mergeCell ref="A309:K309"/>
+    <mergeCell ref="A316:K316"/>
+    <mergeCell ref="A323:K323"/>
+    <mergeCell ref="A330:K330"/>
+    <mergeCell ref="A337:K337"/>
+    <mergeCell ref="A344:K344"/>
+    <mergeCell ref="A351:K351"/>
+    <mergeCell ref="A358:K358"/>
+    <mergeCell ref="A365:K365"/>
+    <mergeCell ref="A372:K372"/>
+    <mergeCell ref="A463:K463"/>
+    <mergeCell ref="A386:K386"/>
+    <mergeCell ref="A393:K393"/>
+    <mergeCell ref="A400:K400"/>
+    <mergeCell ref="A407:K407"/>
+    <mergeCell ref="A414:K414"/>
+    <mergeCell ref="A421:K421"/>
+    <mergeCell ref="A428:K428"/>
+    <mergeCell ref="A435:K435"/>
+    <mergeCell ref="A442:K442"/>
+    <mergeCell ref="A449:K449"/>
+    <mergeCell ref="A456:K456"/>
+    <mergeCell ref="A547:K547"/>
+    <mergeCell ref="A470:K470"/>
+    <mergeCell ref="A477:K477"/>
+    <mergeCell ref="A484:K484"/>
+    <mergeCell ref="A491:K491"/>
+    <mergeCell ref="A498:K498"/>
+    <mergeCell ref="A505:K505"/>
+    <mergeCell ref="A512:K512"/>
+    <mergeCell ref="A519:K519"/>
+    <mergeCell ref="A526:K526"/>
+    <mergeCell ref="A533:K533"/>
+    <mergeCell ref="A540:K540"/>
+    <mergeCell ref="A589:K589"/>
+    <mergeCell ref="A596:K596"/>
+    <mergeCell ref="A554:K554"/>
+    <mergeCell ref="A568:K568"/>
+    <mergeCell ref="A575:K575"/>
+    <mergeCell ref="A582:K582"/>
+    <mergeCell ref="A561:K561"/>
   </mergeCells>
   <pageMargins left="0.68" right="0.7" top="0.59" bottom="0.45" header="0.3" footer="0.5"/>
   <pageSetup scale="63" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/timetableNov25.xlsx
+++ b/timetableNov25.xlsx
@@ -8,36 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\.vscode\project_tt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691D23C0-D209-42EA-B29D-C88B8CAABF16}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBD6C01-62DA-48F5-ABF4-3E942BBDC819}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COMBINED" sheetId="8" r:id="rId1"/>
-    <sheet name="mon" sheetId="2" r:id="rId2"/>
-    <sheet name="tue" sheetId="3" r:id="rId3"/>
-    <sheet name="wed" sheetId="4" r:id="rId4"/>
-    <sheet name="thu" sheetId="5" r:id="rId5"/>
-    <sheet name="fri" sheetId="6" r:id="rId6"/>
-    <sheet name="sat" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
+    <sheet name="mon" sheetId="2" r:id="rId3"/>
+    <sheet name="tue" sheetId="3" r:id="rId4"/>
+    <sheet name="wed" sheetId="4" r:id="rId5"/>
+    <sheet name="thu" sheetId="5" r:id="rId6"/>
+    <sheet name="fri" sheetId="6" r:id="rId7"/>
+    <sheet name="sat" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">COMBINED!$A$1:$K$602</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">fri!$A$1:$L$87</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">mon!$A$1:$L$87</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">sat!$A$1:$L$87</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">thu!$A$1:$L$87</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">tue!$A$1:$L$87</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">wed!$A$1:$L$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">fri!$A$1:$L$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">mon!$A$1:$L$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">sat!$A$1:$L$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">thu!$A$1:$L$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">tue!$A$1:$L$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">wed!$A$1:$L$87</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">COMBINED!$A$1:$K$602</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">COMBINED!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8267" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8268" uniqueCount="532">
   <si>
     <t>tname</t>
   </si>
@@ -2305,11 +2306,11 @@
   </sheetPr>
   <dimension ref="A1:K602"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H215" sqref="H215"/>
+      <selection pane="bottomRight" activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3625,7 +3626,7 @@
       <c r="D48" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G48" s="3"/>
@@ -7152,6 +7153,9 @@
         <v>443</v>
       </c>
       <c r="D181" s="3"/>
+      <c r="E181" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="F181" s="3" t="s">
         <v>206</v>
       </c>
@@ -7161,9 +7165,6 @@
       <c r="H181" s="3"/>
       <c r="I181" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="J181" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="K181" s="3" t="s">
         <v>60</v>
@@ -8632,7 +8633,9 @@
         <v>160</v>
       </c>
       <c r="H236" s="3"/>
-      <c r="I236" s="3"/>
+      <c r="I236" s="3" t="s">
+        <v>410</v>
+      </c>
       <c r="J236" s="3" t="s">
         <v>162</v>
       </c>
@@ -8683,7 +8686,9 @@
         <v>42</v>
       </c>
       <c r="E238" s="3"/>
-      <c r="F238" s="3"/>
+      <c r="F238" s="3" t="s">
+        <v>518</v>
+      </c>
       <c r="G238" s="3" t="s">
         <v>161</v>
       </c>
@@ -9063,9 +9068,7 @@
       <c r="I252" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J252" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="J252" s="3"/>
       <c r="K252" s="3"/>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.3">
@@ -18471,6 +18474,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5BFCC7-CB31-4C64-81AF-433B0DE19055}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L142"/>
@@ -21267,7 +21282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L87"/>
   <sheetViews>
@@ -23899,7 +23914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L87"/>
@@ -26547,7 +26562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L87"/>
   <sheetViews>
@@ -29174,7 +29189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P87"/>
@@ -31842,7 +31857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L87"/>
